--- a/notes.xlsx
+++ b/notes.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\source\repos\INN_CSHARP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Source\Repos\INN_CSHARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="todo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>fl_id</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>sql table</t>
+  </si>
+  <si>
+    <t>walidacja przy save w addForm czy PLU ma 6 cyfr</t>
   </si>
 </sst>
 </file>
@@ -152,10 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,35 +447,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="106.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -476,7 +493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -489,8 +506,11 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,7 +521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -514,8 +534,11 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -523,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -537,7 +560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -548,7 +571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -562,7 +585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -576,7 +599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -590,7 +613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -601,7 +624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -609,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -623,7 +646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -662,6 +685,29 @@
       </c>
       <c r="C19" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="183.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>fl_id</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>sql table</t>
-  </si>
-  <si>
-    <t>walidacja przy save w addForm czy PLU ma 6 cyfr</t>
   </si>
 </sst>
 </file>
@@ -182,6 +179,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066799" y="323850"/>
+          <a:ext cx="10772775" cy="6267450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> walidacja przy save w addForm czy PLU ma 6 cyfr</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t>- error jak klikasz np. na fairtrade w widoku kiwatów</a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,20 +774,16 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="183.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="2" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="todo" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="todo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>fl_id</t>
   </si>
@@ -121,13 +123,43 @@
   </si>
   <si>
     <t>sql table</t>
+  </si>
+  <si>
+    <t>Ctrl-K, Ctrl-C</t>
+  </si>
+  <si>
+    <t>Marks the current line or selected lines of code as a comment, using the correct comment syntax for the programming language</t>
+  </si>
+  <si>
+    <t>Ctrl-K, Ctrl-U</t>
+  </si>
+  <si>
+    <t>Removes the comment syntax from the current line or currently selected lines of code</t>
+  </si>
+  <si>
+    <t>Ctrl-K, Ctrl-\</t>
+  </si>
+  <si>
+    <t>Removes horizontal whitespace in the selection or deletes whitespace adjacent to the cursor if there is no selection</t>
+  </si>
+  <si>
+    <t>Ctrl-K, Ctrl-F</t>
+  </si>
+  <si>
+    <t>Applies the indenting and space formatting for the language as specified on the Formatting pane of the language in the Text Editor section of the Options dialog to the selected text.</t>
+  </si>
+  <si>
+    <t>Ctrl-L</t>
+  </si>
+  <si>
+    <t>Cuts all selected lines or the current line if nothing has been selected to the clipboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +167,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,17 +212,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,9 +852,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="95.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>fl_id</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Cuts all selected lines or the current line if nothing has been selected to the clipboard</t>
+  </si>
+  <si>
+    <t>Ctrl-Enter</t>
+  </si>
+  <si>
+    <t>Inserts a blank line above the cursor</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Enter</t>
+  </si>
+  <si>
+    <t>Inserts a blank line below the cursor</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-L</t>
+  </si>
+  <si>
+    <t>Deletes all selected lines or the current line if no selection has been made</t>
   </si>
 </sst>
 </file>
@@ -332,6 +350,12 @@
           <a:r>
             <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
             <a:t>- error jak klikasz np. na fairtrade w widoku kiwatów</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t>- mozliwoc wpisania tylko cyfr a AddF i EditF</a:t>
           </a:r>
           <a:endParaRPr lang="nb-NO" sz="1100"/>
         </a:p>
@@ -852,10 +876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,12 +922,37 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="todo" sheetId="2" r:id="rId3"/>
+    <sheet name="output" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
   <si>
     <t>fl_id</t>
   </si>
@@ -171,6 +171,144 @@
   </si>
   <si>
     <t>Deletes all selected lines or the current line if no selection has been made</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>PLU</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Stickers Text</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Bucket size</t>
+  </si>
+  <si>
+    <t>Sleeve's type</t>
+  </si>
+  <si>
+    <t>Production Sleeve</t>
+  </si>
+  <si>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>Price PrBunch</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>print stickers?</t>
+  </si>
+  <si>
+    <t>bunch PrBox</t>
+  </si>
+  <si>
+    <t>PrBucket</t>
+  </si>
+  <si>
+    <t>PrBunch</t>
+  </si>
+  <si>
+    <t>Pack rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boxes </t>
+  </si>
+  <si>
+    <t>buckets</t>
+  </si>
+  <si>
+    <t>stems</t>
+  </si>
+  <si>
+    <t>avvik</t>
+  </si>
+  <si>
+    <t>boxes</t>
+  </si>
+  <si>
+    <t>farms</t>
+  </si>
+  <si>
+    <t>Datecode</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>order - butikkdata</t>
+  </si>
+  <si>
+    <t>order number</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>arrival</t>
+  </si>
+  <si>
+    <t>datecode</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>bokser</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>with sleeve</t>
+  </si>
+  <si>
+    <t>bunch pr bucket</t>
+  </si>
+  <si>
+    <t>stems pr bunch</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>pak rate</t>
+  </si>
+  <si>
+    <t>sleeve</t>
+  </si>
+  <si>
+    <t>ordre nummer</t>
   </si>
 </sst>
 </file>
@@ -208,7 +346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +356,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -263,6 +431,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -977,4 +1151,432 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>